--- a/task.xlsx
+++ b/task.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jagai\Desktop\GitBook2.0.Net\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="19065" windowHeight="8670"/>
   </bookViews>
@@ -1315,17 +1320,17 @@
     <t>2nd</t>
   </si>
   <si>
-    <t>3rd</t>
-  </si>
-  <si>
     <t>4th</t>
+  </si>
+  <si>
+    <t>Alexey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1826,24 +1831,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -1871,6 +1876,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1917,7 +1930,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1949,9 +1962,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1983,6 +1997,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2158,16 +2173,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DO4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:119">
+    <row r="1" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>431</v>
       </c>
@@ -2487,7 +2505,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:119">
+    <row r="2" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>432</v>
       </c>
@@ -2846,9 +2864,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:119">
+    <row r="3" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>430</v>
@@ -3169,9 +3187,9 @@
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:119">
+    <row r="4" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B4" t="s">
         <v>327</v>

--- a/task.xlsx
+++ b/task.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jagai\Desktop\GitBook2.0.Net\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="19065" windowHeight="8670"/>
   </bookViews>
@@ -1317,19 +1312,19 @@
     <t>1st</t>
   </si>
   <si>
-    <t>2nd</t>
-  </si>
-  <si>
     <t>4th</t>
   </si>
   <si>
     <t>Alexey</t>
+  </si>
+  <si>
+    <t>Vlad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1831,24 +1826,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -1930,7 +1925,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1965,7 +1960,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2177,7 +2172,7 @@
   <dimension ref="A1:DO4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2507,7 +2502,7 @@
     </row>
     <row r="2" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>429</v>
@@ -2866,7 +2861,7 @@
     </row>
     <row r="3" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>430</v>
@@ -3189,7 +3184,7 @@
     </row>
     <row r="4" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B4" t="s">
         <v>327</v>

--- a/task.xlsx
+++ b/task.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="19065" windowHeight="8670"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="111" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1312,20 +1312,20 @@
     <t>1st</t>
   </si>
   <si>
-    <t>4th</t>
-  </si>
-  <si>
     <t>Alexey</t>
   </si>
   <si>
     <t>Vlad</t>
+  </si>
+  <si>
+    <t>Dmitriy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1957,7 +1957,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1992,7 +1991,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2168,19 +2166,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DO4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:119">
       <c r="A1" t="s">
         <v>431</v>
       </c>
@@ -2500,9 +2498,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:119">
       <c r="A2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>429</v>
@@ -2859,9 +2857,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:119">
       <c r="A3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>430</v>
@@ -3182,9 +3180,9 @@
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:119">
       <c r="A4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B4" t="s">
         <v>327</v>

--- a/task.xlsx
+++ b/task.xlsx
@@ -1480,7 +1480,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1660,6 +1660,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1821,9 +1827,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2167,271 +2174,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DO4"/>
+  <dimension ref="A1:DO5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BI2" sqref="BI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="23" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="119" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:119">
       <c r="A1" t="s">
         <v>431</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="CH1" t="s">
@@ -2502,184 +2512,184 @@
       <c r="A2" t="s">
         <v>433</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AE2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AF2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AH2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AL2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AM2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AN2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AO2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AP2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AR2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AS2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AT2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AU2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AV2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AW2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AX2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AY2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BA2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BB2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BC2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BD2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BE2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BF2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BG2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BH2" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BI2" s="1" t="s">
         <v>163</v>
       </c>
       <c r="BJ2" t="s">
@@ -2861,322 +2871,322 @@
       <c r="A3" t="s">
         <v>432</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z3" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AB3" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC3" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD3" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AE3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AF3" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AG3" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AH3" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AI3" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AK3" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AL3" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AM3" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AN3" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AO3" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AP3" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AR3" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AS3" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AT3" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AU3" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AV3" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AW3" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AX3" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AY3" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BA3" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BB3" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BC3" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BD3" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BE3" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BF3" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BG3" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BH3" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BI3" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BJ3" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="BK3" t="s">
+      <c r="BK3" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BL3" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="BM3" t="s">
+      <c r="BM3" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BN3" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BO3" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BP3" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="BQ3" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="BR3" t="s">
+      <c r="BR3" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="BS3" t="s">
+      <c r="BS3" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="BT3" t="s">
+      <c r="BT3" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="BU3" t="s">
+      <c r="BU3" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="BV3" t="s">
+      <c r="BV3" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="BW3" t="s">
+      <c r="BW3" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="BX3" t="s">
+      <c r="BX3" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="BY3" t="s">
+      <c r="BY3" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="BZ3" t="s">
+      <c r="BZ3" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="CA3" t="s">
+      <c r="CA3" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="CB3" t="s">
+      <c r="CB3" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="CC3" t="s">
+      <c r="CC3" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="CD3" t="s">
+      <c r="CD3" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="CE3" t="s">
+      <c r="CE3" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="CF3" t="s">
+      <c r="CF3" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="CG3" t="s">
+      <c r="CG3" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="CH3" t="s">
+      <c r="CH3" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="CI3" t="s">
+      <c r="CI3" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="CJ3" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="CK3" t="s">
+      <c r="CK3" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="CL3" t="s">
+      <c r="CL3" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="CM3" t="s">
+      <c r="CM3" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="CN3" t="s">
+      <c r="CN3" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="CO3" t="s">
+      <c r="CO3" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="CP3" t="s">
+      <c r="CP3" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="CQ3" t="s">
+      <c r="CQ3" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="CR3" t="s">
+      <c r="CR3" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="CS3" t="s">
+      <c r="CS3" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="CT3" t="s">
+      <c r="CT3" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="CU3" t="s">
+      <c r="CU3" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="CV3" t="s">
+      <c r="CV3" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="CW3" t="s">
+      <c r="CW3" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="CX3" t="s">
+      <c r="CX3" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="CY3" t="s">
+      <c r="CY3" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="CZ3" t="s">
+      <c r="CZ3" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="DA3" t="s">
+      <c r="DA3" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="DB3" t="s">
+      <c r="DB3" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="DC3" t="s">
+      <c r="DC3" s="1" t="s">
         <v>326</v>
       </c>
     </row>
@@ -3184,311 +3194,784 @@
       <c r="A4" t="s">
         <v>434</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB4" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AC4" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD4" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AE4" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AF4" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AG4" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AH4" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AI4" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AK4" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AL4" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AM4" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AN4" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AO4" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AP4" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AQ4" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AR4" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AS4" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AT4" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AU4" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AV4" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AW4" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AX4" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AY4" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="AZ4" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BA4" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BB4" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BC4" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BD4" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BE4" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BF4" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BG4" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BH4" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BI4" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BJ4" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BK4" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BL4" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="BM4" t="s">
+      <c r="BM4" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BN4" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BO4" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BP4" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="BQ4" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="BR4" t="s">
+      <c r="BR4" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="BS4" t="s">
+      <c r="BS4" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="BT4" t="s">
+      <c r="BT4" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="BU4" t="s">
+      <c r="BU4" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="BV4" t="s">
+      <c r="BV4" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="BW4" t="s">
+      <c r="BW4" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="BX4" t="s">
+      <c r="BX4" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="BY4" t="s">
+      <c r="BY4" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="BZ4" t="s">
+      <c r="BZ4" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="CA4" t="s">
+      <c r="CA4" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="CB4" t="s">
+      <c r="CB4" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="CC4" t="s">
+      <c r="CC4" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="CD4" t="s">
+      <c r="CD4" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="CE4" t="s">
+      <c r="CE4" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="CF4" t="s">
+      <c r="CF4" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="CG4" t="s">
+      <c r="CG4" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="CH4" t="s">
+      <c r="CH4" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="CI4" t="s">
+      <c r="CI4" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="CJ4" t="s">
+      <c r="CJ4" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="CK4" t="s">
+      <c r="CK4" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="CL4" t="s">
+      <c r="CL4" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="CM4" t="s">
+      <c r="CM4" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="CN4" t="s">
+      <c r="CN4" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="CO4" t="s">
+      <c r="CO4" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="CP4" t="s">
+      <c r="CP4" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="CQ4" t="s">
+      <c r="CQ4" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="CR4" t="s">
+      <c r="CR4" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="CS4" t="s">
+      <c r="CS4" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="CT4" t="s">
+      <c r="CT4" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="CU4" t="s">
+      <c r="CU4" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="CV4" t="s">
+      <c r="CV4" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="CW4" t="s">
+      <c r="CW4" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="CX4" t="s">
+      <c r="CX4" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="CY4" t="s">
+      <c r="CY4" s="1" t="s">
         <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:119">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f>B5+1</f>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:BO5" si="0">C5+1</f>
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="AS5">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="AT5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="AU5">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="AV5">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="AW5">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="AX5">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="AY5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="AZ5">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="BA5">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="BB5">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="BC5">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="BD5">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="BE5">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="BF5">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="BG5">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="BH5">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="BI5">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="BJ5">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="BK5">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="BL5">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="BM5">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="BN5">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="BO5">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="BP5">
+        <f t="shared" ref="BP5:DO5" si="1">BO5+1</f>
+        <v>67</v>
+      </c>
+      <c r="BQ5">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="BR5">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="BS5">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="BT5">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="BU5">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="BV5">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="BW5">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="BX5">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="BY5">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="BZ5">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="CA5">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="CB5">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="CC5">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="CD5">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="CE5">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="CF5">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="CG5">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="CH5">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="CI5">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="CJ5">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="CK5">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="CL5">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="CM5">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="CN5">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="CO5">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="CP5">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="CQ5">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="CR5">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="CS5">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="CT5">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="CU5">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="CV5">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="CW5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="CX5">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="CY5">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="CZ5">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="DA5">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="DB5">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="DC5">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="DD5">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="DE5">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="DF5">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="DG5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="DH5">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="DI5">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="DJ5">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="DK5">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="DL5">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="DM5">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="DN5">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="DO5">
+        <f t="shared" si="1"/>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/task.xlsx
+++ b/task.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitBook2.0.Net\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="19065" windowHeight="8670"/>
   </bookViews>
   <sheets>
     <sheet name="111" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1324,8 +1329,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1833,48 +1838,48 @@
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1890,9 +1895,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1930,9 +1935,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1964,9 +1969,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1998,9 +2004,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2173,14 +2180,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DO5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BI2" sqref="BI2"/>
+    <sheetView tabSelected="1" topLeftCell="BR1" workbookViewId="0">
+      <selection activeCell="CJ10" sqref="CJ10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
@@ -2188,7 +2195,7 @@
     <col min="24" max="119" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119">
+    <row r="1" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>431</v>
       </c>
@@ -2444,71 +2451,71 @@
       <c r="CG1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:119">
+    <row r="2" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>433</v>
       </c>
@@ -2867,7 +2874,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:119">
+    <row r="3" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>432</v>
       </c>
@@ -3190,7 +3197,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:119">
+    <row r="4" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>434</v>
       </c>
@@ -3501,7 +3508,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="5" spans="1:119">
+    <row r="5" spans="1:119" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>

--- a/task.xlsx
+++ b/task.xlsx
@@ -1314,9 +1314,6 @@
     <t>12-22</t>
   </si>
   <si>
-    <t>1st</t>
-  </si>
-  <si>
     <t>Alexey</t>
   </si>
   <si>
@@ -1324,6 +1321,9 @@
   </si>
   <si>
     <t>Dmitriy</t>
+  </si>
+  <si>
+    <t>Egor</t>
   </si>
 </sst>
 </file>
@@ -2183,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DO5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BR1" workbookViewId="0">
-      <selection activeCell="CJ10" sqref="CJ10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2197,7 +2197,7 @@
   <sheetData>
     <row r="1" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="2" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>429</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="3" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>430</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="4" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>327</v>

--- a/task.xlsx
+++ b/task.xlsx
@@ -2183,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DO5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="DE1" workbookViewId="0">
+      <selection activeCell="DO12" sqref="DO12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2699,178 +2699,178 @@
       <c r="BI2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BK2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BL2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BM2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BN2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BO2" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BP2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BR2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BS2" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BT2" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BU2" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BV2" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BW2" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BX2" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="BY2" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="BZ2" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CA2" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CB2" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CC2" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CD2" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CE2" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CF2" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CG2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CH2" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CI2" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CJ2" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CK2" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CL2" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CM2" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CN2" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="CO2" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CP2" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="CQ2" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CR2" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="CS2" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CT2" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CU2" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="CV2" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="CW2" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="CX2" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="CY2" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="CZ2" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DA2" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="DB2" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DC2" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DD2" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DE2" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="DF2" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DG2" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="DH2" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="DI2" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="DJ2" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="DK2" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="DL2" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="DM2" t="s">
+      <c r="DM2" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="DN2" t="s">
+      <c r="DN2" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="DO2" t="s">
+      <c r="DO2" s="1" t="s">
         <v>221</v>
       </c>
     </row>
